--- a/ssm_result.xlsx
+++ b/ssm_result.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6393,7 +6393,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -7843,7 +7843,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -8013,7 +8013,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -8673,7 +8673,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="B865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="B874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="B916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -9913,7 +9913,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -9923,7 +9923,7 @@
         </is>
       </c>
       <c r="B949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -10173,7 +10173,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -10213,7 +10213,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="B997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -10964,7 +10964,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -11294,7 +11294,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -12224,7 +12224,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -13544,7 +13544,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -14394,7 +14394,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -14434,7 +14434,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -15104,7 +15104,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -15174,7 +15174,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -15304,7 +15304,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -15774,7 +15774,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -16934,7 +16934,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -17294,7 +17294,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -17874,7 +17874,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -18164,7 +18164,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -18454,7 +18454,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -18734,7 +18734,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -20194,7 +20194,7 @@
         </is>
       </c>
       <c r="B973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
